--- a/TestData/Production/Web_POS/Promo/login_test_data.xlsx
+++ b/TestData/Production/Web_POS/Promo/login_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\TESTDATA\PRODUCTION\Web_POS\Promo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Production\Web_POS\Promo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>discount_on</t>
+  </si>
+  <si>
+    <t>user_mobile</t>
   </si>
   <si>
     <t>TC_01</t>
@@ -174,25 +177,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
-    <border>
-      <left>
-        <color indexed="64"/>
-      </left>
-      <right>
-        <color indexed="64"/>
-      </right>
-      <top>
-        <color indexed="64"/>
-      </top>
-      <bottom>
-        <color indexed="64"/>
-      </bottom>
-      <diagonal>
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -205,7 +191,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -436,8 +422,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="O1">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -525,37 +511,40 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
         <v>1234</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2">
         <v>123456</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
@@ -564,63 +553,66 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" s="5">
         <v>37348</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="1">
         <v>50</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V2" s="1">
+        <v>4741854178</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
         <v>1234</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2">
         <v>123456</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
@@ -629,63 +621,66 @@
         <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" s="5">
         <v>37348</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" s="1">
         <v>50</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V3" s="1">
+        <v>4741854178</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
         <v>1234</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2">
         <v>123456</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -694,31 +689,34 @@
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O4" s="5">
         <v>37348</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" s="1">
         <v>50</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V4" s="1">
+        <v>4741854178</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
